--- a/Examen I/Práctica Examen.xlsx
+++ b/Examen I/Práctica Examen.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laguilar/Documents/GitHub/ucr/if-7200-i-2023/Examen I/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AF9543D-D009-C54E-B01F-242C7F078144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C1ADEF-1977-9C42-9AED-A88FCFAE6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{463C0421-8187-8941-B4D0-0E8F812E5F70}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="5" xr2:uid="{463C0421-8187-8941-B4D0-0E8F812E5F70}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ejercicio 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ejercicio 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Ejercicio 3" sheetId="4" r:id="rId3"/>
+    <sheet name="Ejercicio 4" sheetId="5" r:id="rId4"/>
+    <sheet name="Ejercicio 5" sheetId="6" r:id="rId5"/>
+    <sheet name="Ejercicio 6" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,9 +40,280 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="87">
+  <si>
+    <t>Tipo de inversión</t>
+  </si>
+  <si>
+    <t>Costo de inversión</t>
+  </si>
+  <si>
+    <t>Ingresos con restultados favorables</t>
+  </si>
+  <si>
+    <t>Ingresos con restultados desfavorables</t>
+  </si>
+  <si>
+    <t>Ingresos netos esperados</t>
+  </si>
+  <si>
+    <t>Campaña publicitaria grande</t>
+  </si>
+  <si>
+    <t>Campaña publicitaria pequeña</t>
+  </si>
+  <si>
+    <t>Agencia + Campaña publicitaria grande</t>
+  </si>
+  <si>
+    <t>Agencia + Campaña publicitaria pequeña</t>
+  </si>
+  <si>
+    <t>3- Determine las probabilidades posteriores mediante Bayes (4 pts)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4- Realice el árbol de decisiones de forma correcta (12 pts) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5- Indique el valor monetario esperado de realizar el estudio (2 pts.) </t>
+  </si>
+  <si>
+    <t>2- Realice un cuadro de probabilidades condicionales (4 pts)</t>
+  </si>
+  <si>
+    <t>1-Realice los cuadros con los ingresos netos esperados para los diferentes escenarios (8 pts)</t>
+  </si>
+  <si>
+    <t>Nivel de inversión</t>
+  </si>
+  <si>
+    <t>Resultados favorables</t>
+  </si>
+  <si>
+    <t>Resultados desfavorables</t>
+  </si>
+  <si>
+    <t>VME</t>
+  </si>
+  <si>
+    <t>Predicción junio</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Pronóstico julio</t>
+  </si>
+  <si>
+    <t>1. Utilizando una constante de suavizamiento de alfa = 3%, ¿cuál puede ser el pronóstico para el mes de julio de 2021? 2 pt</t>
+  </si>
+  <si>
+    <t>2. ¿Si la demanda real de julio de 2021 es de 1700 unidades, cuál puede ser el pronóstico para el mes de agosto de 2021, con el mismo alfa? 2 pt.</t>
+  </si>
+  <si>
+    <t>Demanda real julio</t>
+  </si>
+  <si>
+    <t>Demanda real junio</t>
+  </si>
+  <si>
+    <t>Pronóstico agosto</t>
+  </si>
+  <si>
+    <t>R/ Para el mes de agosto se pronostican 1591,5 unidades</t>
+  </si>
+  <si>
+    <t>R/ Para el mes de julio se pronostican 1545 unidades</t>
+  </si>
+  <si>
+    <t>3. ¿Cómo varían los datos con un alfa del 3.5%? 2 pt.</t>
+  </si>
+  <si>
+    <t>Ponóstico agosto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R/ Tanto para el mes de julio como el mes de agosto la demanda subiría, en julio 7,5 unidades y en agosto 12,625 unidades </t>
+  </si>
+  <si>
+    <t>4. ¿Cuál alfa tiene un mejor DMA y por qué? 2 pt.</t>
+  </si>
+  <si>
+    <t>Mes</t>
+  </si>
+  <si>
+    <t>junio</t>
+  </si>
+  <si>
+    <t>julio</t>
+  </si>
+  <si>
+    <t>a=0,3</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>a=0,35</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>DMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Mediante un método gráfico indique si los datos tienen tendencia o estacionalidad 2 pts. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2- Indique cuál método de pronóstico por series de tiempo utilizaría según la respuesta anterior 2 pts. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3- Indique cómo obtener la ecuación para poder pronosticar las ventas del año 2021 (haga las cálculos y muestre el resultado) 4 pts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.  Según el criterio del valor monetario esperado, que opción recomendaría (5 pts.) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.  Calcule el valor esperado de la información perfecta (2 pts.) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.  ¿Qué decisión tomaría utilizando el criterio de arrepentimiento minimax? Haga la tabla de pérdida de oportunidad (10 pts.) </t>
+  </si>
+  <si>
+    <t>1. a) Para minimizar el costo, ¿Cuántas unidades deberían ordenarse cada vez que se coloca una orden? 2 pts</t>
+  </si>
+  <si>
+    <t>2. b) ¿Cuántas órdenes por año se necesitan con la política óptima? 3 pts</t>
+  </si>
+  <si>
+    <t>3. c) ¿Cuál es el inventario promedio si se minimizan los costos? 5 pts</t>
+  </si>
+  <si>
+    <t>Indique el costo por almacenar 2 pts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indique cuál es el mayor costo anual por almacenar 2 pts. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indique el costo anual por ordenar si pide 150 unidades. 2 pts. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Año </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demanda </t>
+  </si>
+  <si>
+    <t>R/  Podría desarrollarse un índice estacional y usarse con cualquier método de promedios</t>
+  </si>
+  <si>
+    <t>R/ El gráfico demuestra que la demanda sigue siendo creciente a pesar de que por ciertos años cae, por lo que se tiene un efecto estacional</t>
+  </si>
+  <si>
+    <t>Alternativa</t>
+  </si>
+  <si>
+    <t>Bueno</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Malo</t>
+  </si>
+  <si>
+    <t>Tienda pequeña</t>
+  </si>
+  <si>
+    <t>Tienda mediana</t>
+  </si>
+  <si>
+    <t>Ninguna tienda</t>
+  </si>
+  <si>
+    <t>R/ El alfa dfe 0,35 porque tiene un menor nivel de error</t>
+  </si>
+  <si>
+    <t>R/ Recomendaría abrir una tienda mediana</t>
+  </si>
+  <si>
+    <t>VEIP</t>
+  </si>
+  <si>
+    <t>VECIP</t>
+  </si>
+  <si>
+    <t>Mejor alternativa buena</t>
+  </si>
+  <si>
+    <t>Mejor alternativa regular</t>
+  </si>
+  <si>
+    <t>Mejor alternativa malo</t>
+  </si>
+  <si>
+    <t>R/ Basados en Minimax, la altenativa que se escoge es la realizar la tienda mediana</t>
+  </si>
+  <si>
+    <t>Probabilidades</t>
+  </si>
+  <si>
+    <t>Demanda anual en unidades (D)</t>
+  </si>
+  <si>
+    <t>Costo por almacenar por unidad (Ch)</t>
+  </si>
+  <si>
+    <t>Costo por ordenar por cada orden (Co)</t>
+  </si>
+  <si>
+    <t>Unidades</t>
+  </si>
+  <si>
+    <t>100-199</t>
+  </si>
+  <si>
+    <t>Descuento</t>
+  </si>
+  <si>
+    <t>CLE</t>
+  </si>
+  <si>
+    <t>Demanda anual</t>
+  </si>
+  <si>
+    <t>Costo por ordenar</t>
+  </si>
+  <si>
+    <t>Cargo por almacenar</t>
+  </si>
+  <si>
+    <t>Costo por almacenar</t>
+  </si>
+  <si>
+    <t>Órdenes por año</t>
+  </si>
+  <si>
+    <t>Inventario promedio</t>
+  </si>
+  <si>
+    <t>Unidades por orden (Q)</t>
+  </si>
+  <si>
+    <t>Cantidad por almacenar</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="[$$-409]#,##0"/>
+    <numFmt numFmtId="174" formatCode="&quot;$&quot;#,##0"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -45,16 +321,69 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="TimesNewRomanPSMT"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -62,17 +391,279 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="16">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="[$$-409]#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="[$$-409]#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="[$$-409]#,##0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -83,6 +674,1236 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tendencia de la demanda por año</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ejercicio 3'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ejercicio 3'!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>25900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27650</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36750</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>73500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>103600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>110600</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>112000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>126000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>147000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>161000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>207200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>221200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>224000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>252000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>294000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>322000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7C41-4E4A-A66D-AB0D0256EFAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="527453136"/>
+        <c:axId val="527455408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="527453136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="527455408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="527455408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="527453136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>289061</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>124351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>606951</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>31477</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAFBA8A3-A18D-A177-6837-7197822E90A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>22544</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>517803</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19422</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10E74C10-50DF-784D-97E9-CE6636A15E59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22544" y="202900"/>
+          <a:ext cx="6401886" cy="2048415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76FA9080-21D6-DF4C-8A7D-2D7B8687E090}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7772400" cy="2060863"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA2E36E4-B3BA-4B42-85C2-67E85A3B7415}" name="Table1" displayName="Table1" ref="B3:F7" totalsRowShown="0" headerRowDxfId="11">
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{BE666DF2-6757-6B4A-BA54-E2C59C030943}" name="Tipo de inversión"/>
+    <tableColumn id="2" xr3:uid="{222980AD-E681-A045-AA9D-C8084A325422}" name="Costo de inversión" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{5B5419AF-6863-FB43-BBB4-14083D96A6DE}" name="Ingresos con restultados favorables" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{D08AA9F6-DFD5-6D4A-BBB6-759002F0D49D}" name="Ingresos con restultados desfavorables" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{F54D7355-3D98-E749-921E-99A6F35D9A7E}" name="Ingresos netos esperados" dataDxfId="12">
+      <calculatedColumnFormula>0.4*(Table1[[#This Row],[Ingresos con restultados favorables]]-Table1[[#This Row],[Costo de inversión]])+0.6*(Table1[[#This Row],[Ingresos con restultados desfavorables]]-Table1[[#This Row],[Costo de inversión]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9F3BB28B-F0D2-3A48-A8C2-AEBB9BB16E83}" name="Table3" displayName="Table3" ref="B11:D15" totalsRowShown="0">
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{96465968-6E53-E048-8177-6224151DCA71}" name="Nivel de inversión" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{86F6DEE6-AC7C-BB4C-89B3-34F9643CE37E}" name="Resultados favorables" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{5B6335AA-C898-0F45-AFC9-121274C43D7E}" name="Resultados desfavorables" dataCellStyle="Percent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F0845AE5-8482-2D48-86EF-B836567BE29F}" name="Table5" displayName="Table5" ref="A1:B25" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{955CD04F-12F7-794C-BFC0-26DBC3D2BDF0}" name="Año " dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{D0A1FD92-8DA9-0E4D-B615-3A8A7518A8DA}" name="Demanda " dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{07B93079-78BD-6D4A-B328-234B749F7836}" name="Table57" displayName="Table57" ref="B55:C79" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{2623E121-4CC0-5B4C-90CE-1F0B0F630FF6}" name="Año " dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{D2FEADD3-FAC6-FC42-9D59-4464CD5957AE}" name="Demanda " dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{AE796466-CCF5-D643-B63A-F683B4335B71}" name="Table8" displayName="Table8" ref="A2:E5" totalsRowShown="0">
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{CE5DC007-77E1-984F-8AAA-9FE950B462F1}" name="Alternativa" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{6536363D-1368-9644-91A8-346BBC500EE6}" name="Bueno"/>
+    <tableColumn id="3" xr3:uid="{DC6E6F20-52D9-0942-BC11-0942E0CB6E27}" name="Regular"/>
+    <tableColumn id="4" xr3:uid="{C0A0DE99-1A02-B94C-AAC1-E822D642357F}" name="Malo"/>
+    <tableColumn id="5" xr3:uid="{B358239A-5B58-E749-AD06-525EE0DB640E}" name="VME" dataDxfId="0">
+      <calculatedColumnFormula>(Table8[[#This Row],[Bueno]]*$B$1)+(Table8[[#This Row],[Regular]]*$C$1)+(Table8[[#This Row],[Malo]]*$D$1)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,12 +2203,1379 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C954FE7C-A0E4-9D41-A53F-0095D8C43EBC}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="114" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>8000</v>
+      </c>
+      <c r="D4" s="5">
+        <v>30000</v>
+      </c>
+      <c r="E4" s="5">
+        <f>Table1[[#This Row],[Ingresos con restultados favorables]]-(Table1[[#This Row],[Ingresos con restultados favorables]]*0.4)</f>
+        <v>18000</v>
+      </c>
+      <c r="F4" s="4">
+        <f>0.4*(Table1[[#This Row],[Ingresos con restultados favorables]]-Table1[[#This Row],[Costo de inversión]])+0.6*(Table1[[#This Row],[Ingresos con restultados desfavorables]]-Table1[[#This Row],[Costo de inversión]])</f>
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D5" s="5">
+        <v>17000</v>
+      </c>
+      <c r="E5" s="5">
+        <f>Table1[[#This Row],[Ingresos con restultados favorables]]-(Table1[[#This Row],[Ingresos con restultados favorables]]*0.6)</f>
+        <v>6800</v>
+      </c>
+      <c r="F5" s="4">
+        <f>0.4*(Table1[[#This Row],[Ingresos con restultados favorables]]-Table1[[#This Row],[Costo de inversión]])+0.6*(Table1[[#This Row],[Ingresos con restultados desfavorables]]-Table1[[#This Row],[Costo de inversión]])</f>
+        <v>5880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5">
+        <f>C4+(C4*0.3)</f>
+        <v>10400</v>
+      </c>
+      <c r="D6" s="5">
+        <f>D4+(D4*0.4)</f>
+        <v>42000</v>
+      </c>
+      <c r="E6" s="5">
+        <f>E4+(E4*0.4)</f>
+        <v>25200</v>
+      </c>
+      <c r="F6" s="4">
+        <f>0.4*(Table1[[#This Row],[Ingresos con restultados favorables]]-Table1[[#This Row],[Costo de inversión]])+0.6*(Table1[[#This Row],[Ingresos con restultados desfavorables]]-Table1[[#This Row],[Costo de inversión]])</f>
+        <v>21520</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5">
+        <f>C5+(C5*0.3)</f>
+        <v>6500</v>
+      </c>
+      <c r="D7" s="5">
+        <f>D5+(D5*0.4)</f>
+        <v>23800</v>
+      </c>
+      <c r="E7" s="5">
+        <f>E5+(E5*0.4)</f>
+        <v>9520</v>
+      </c>
+      <c r="F7" s="4">
+        <f>0.4*(Table1[[#This Row],[Ingresos con restultados favorables]]-Table1[[#This Row],[Costo de inversión]])+0.6*(Table1[[#This Row],[Ingresos con restultados desfavorables]]-Table1[[#This Row],[Costo de inversión]])</f>
+        <v>8732</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="11">
+        <f>0.4*0.6</f>
+        <v>0.24</v>
+      </c>
+      <c r="D12" s="11">
+        <f>0.6*0.4</f>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="11">
+        <f>0.4*0.4</f>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="D13" s="11">
+        <f>0.6*0.6</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="11">
+        <f>0.4*0.8*0.6</f>
+        <v>0.19200000000000003</v>
+      </c>
+      <c r="D14" s="11">
+        <f>0.4*0.8*0.4</f>
+        <v>0.12800000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="11">
+        <f>0.4*0.8*0.3</f>
+        <v>9.6000000000000016E-2</v>
+      </c>
+      <c r="D15" s="11">
+        <f>0.4*0.8*0.7</f>
+        <v>0.22400000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="10">
+        <f>(0.4*22000)+(0.3*25000)</f>
+        <v>16300</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94704D5E-392C-274A-8869-00C04E04140E}">
+  <dimension ref="A2:G39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <f>C4+C6*(C5-C4)</f>
+        <v>1504.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <f>C8+C6*(C14-C8)</f>
+        <v>1510.365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <f>C21+C23*(C22-C21)</f>
+        <v>1505.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <f>C25+C23*(C26-C25)</f>
+        <v>1512.0662500000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="17" customHeight="1">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1650</v>
+      </c>
+      <c r="D35">
+        <f>C4</f>
+        <v>1500</v>
+      </c>
+      <c r="E35">
+        <f>ABS(C35-D35)</f>
+        <v>150</v>
+      </c>
+      <c r="F35">
+        <f>C21</f>
+        <v>1500</v>
+      </c>
+      <c r="G35">
+        <f>ABS(C35-F35)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1700</v>
+      </c>
+      <c r="D36">
+        <f>C14</f>
+        <v>1700</v>
+      </c>
+      <c r="E36">
+        <f>ABS(C36-D36)</f>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f>C25</f>
+        <v>1505.25</v>
+      </c>
+      <c r="G36">
+        <f>ABS(C36-F36)</f>
+        <v>194.75</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="D37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37">
+        <f>SUM(E35:E36)/COUNT(E35:E36)</f>
+        <v>75</v>
+      </c>
+      <c r="G37">
+        <f>SUM(G35:G36)/COUNT(G35:G36)</f>
+        <v>172.375</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7DD43A-EA34-F14E-A922-D9CDFCC4D4CC}">
+  <dimension ref="A1:D79"/>
+  <sheetViews>
+    <sheetView topLeftCell="A33" zoomScale="119" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="13">
+        <v>1997</v>
+      </c>
+      <c r="B2" s="13">
+        <v>25900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="13">
+        <v>1998</v>
+      </c>
+      <c r="B3" s="13">
+        <v>27650</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="13">
+        <v>1999</v>
+      </c>
+      <c r="B4" s="13">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B5" s="13">
+        <v>31500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B6" s="13">
+        <v>36750</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="13">
+        <v>2002</v>
+      </c>
+      <c r="B7" s="13">
+        <v>40250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="13">
+        <v>2003</v>
+      </c>
+      <c r="B8" s="13">
+        <v>51800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="13">
+        <v>2004</v>
+      </c>
+      <c r="B9" s="13">
+        <v>55300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="13">
+        <v>2005</v>
+      </c>
+      <c r="B10" s="13">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="13">
+        <v>2006</v>
+      </c>
+      <c r="B11" s="13">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="13">
+        <v>2007</v>
+      </c>
+      <c r="B12" s="13">
+        <v>73500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="13">
+        <v>2008</v>
+      </c>
+      <c r="B13" s="13">
+        <v>80500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="13">
+        <v>2009</v>
+      </c>
+      <c r="B14" s="13">
+        <v>103600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="13">
+        <v>2010</v>
+      </c>
+      <c r="B15" s="13">
+        <v>110600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="13">
+        <v>2011</v>
+      </c>
+      <c r="B16" s="13">
+        <v>112000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="13">
+        <v>2012</v>
+      </c>
+      <c r="B17" s="13">
+        <v>126000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="13">
+        <v>2013</v>
+      </c>
+      <c r="B18" s="13">
+        <v>147000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="13">
+        <v>2014</v>
+      </c>
+      <c r="B19" s="13">
+        <v>161000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="13">
+        <v>2015</v>
+      </c>
+      <c r="B20" s="13">
+        <v>207200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="13">
+        <v>2016</v>
+      </c>
+      <c r="B21" s="13">
+        <v>221200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B22" s="13">
+        <v>224000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="13">
+        <v>2018</v>
+      </c>
+      <c r="B23" s="13">
+        <v>252000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B24" s="13">
+        <v>294000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="13">
+        <v>2020</v>
+      </c>
+      <c r="B25" s="13">
+        <v>322000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="B51" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="B55" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="B56" s="13">
+        <v>1997</v>
+      </c>
+      <c r="C56" s="13">
+        <v>25900</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="B57" s="13">
+        <v>1998</v>
+      </c>
+      <c r="C57" s="13">
+        <v>27650</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="B58" s="13">
+        <v>1999</v>
+      </c>
+      <c r="C58" s="13">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="B59" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C59" s="13">
+        <v>31500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="B60" s="13">
+        <v>2001</v>
+      </c>
+      <c r="C60" s="13">
+        <v>36750</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="B61" s="13">
+        <v>2002</v>
+      </c>
+      <c r="C61" s="13">
+        <v>40250</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="B62" s="13">
+        <v>2003</v>
+      </c>
+      <c r="C62" s="13">
+        <v>51800</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="B63" s="13">
+        <v>2004</v>
+      </c>
+      <c r="C63" s="13">
+        <v>55300</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="B64" s="13">
+        <v>2005</v>
+      </c>
+      <c r="C64" s="13">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" s="13">
+        <v>2006</v>
+      </c>
+      <c r="C65" s="13">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" s="13">
+        <v>2007</v>
+      </c>
+      <c r="C66" s="13">
+        <v>73500</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" s="13">
+        <v>2008</v>
+      </c>
+      <c r="C67" s="13">
+        <v>80500</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68" s="13">
+        <v>2009</v>
+      </c>
+      <c r="C68" s="13">
+        <v>103600</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69" s="13">
+        <v>2010</v>
+      </c>
+      <c r="C69" s="13">
+        <v>110600</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70" s="13">
+        <v>2011</v>
+      </c>
+      <c r="C70" s="13">
+        <v>112000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" s="13">
+        <v>2012</v>
+      </c>
+      <c r="C71" s="13">
+        <v>126000</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" s="13">
+        <v>2013</v>
+      </c>
+      <c r="C72" s="13">
+        <v>147000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73" s="13">
+        <v>2014</v>
+      </c>
+      <c r="C73" s="13">
+        <v>161000</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74" s="13">
+        <v>2015</v>
+      </c>
+      <c r="C74" s="13">
+        <v>207200</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="B75" s="13">
+        <v>2016</v>
+      </c>
+      <c r="C75" s="13">
+        <v>221200</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="B76" s="13">
+        <v>2017</v>
+      </c>
+      <c r="C76" s="13">
+        <v>224000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77" s="13">
+        <v>2018</v>
+      </c>
+      <c r="C77" s="13">
+        <v>252000</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78" s="13">
+        <v>2019</v>
+      </c>
+      <c r="C78" s="13">
+        <v>294000</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="B79" s="13">
+        <v>2020</v>
+      </c>
+      <c r="C79" s="13">
+        <v>322000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7793C6F1-3A6C-754D-9D1A-3C825FEAA289}">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="168" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1">
+        <v>0.2</v>
+      </c>
+      <c r="C1">
+        <v>0.5</v>
+      </c>
+      <c r="D1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3">
+        <v>75000</v>
+      </c>
+      <c r="C3">
+        <v>25000</v>
+      </c>
+      <c r="D3">
+        <v>-40000</v>
+      </c>
+      <c r="E3">
+        <f>(Table8[[#This Row],[Bueno]]*$B$1)+(Table8[[#This Row],[Regular]]*$C$1)+(Table8[[#This Row],[Malo]]*$D$1)</f>
+        <v>15500</v>
+      </c>
+      <c r="G3" s="2">
+        <f>(MAX(Table8[Bueno])*B1)+(MAX(Table8[Regular])*C1)+(MAX(Table8[Malo])*D1)</f>
+        <v>37500</v>
+      </c>
+      <c r="H3" s="2">
+        <f>G3-MAX(Table8[VME])</f>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4">
+        <v>100000</v>
+      </c>
+      <c r="C4">
+        <v>35000</v>
+      </c>
+      <c r="D4">
+        <v>-60000</v>
+      </c>
+      <c r="E4">
+        <f>(Table8[[#This Row],[Bueno]]*$B$1)+(Table8[[#This Row],[Regular]]*$C$1)+(Table8[[#This Row],[Malo]]*$D$1)</f>
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>(Table8[[#This Row],[Bueno]]*$B$1)+(Table8[[#This Row],[Regular]]*$C$1)+(Table8[[#This Row],[Malo]]*$D$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="6"/>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="6"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17">
+        <f>MAX(Table8[Bueno])</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18">
+        <f>MAX(Table8[Regular])</f>
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19">
+        <f>MAX(Table8[Malo])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="2">
+        <f>$C$17-B3</f>
+        <v>25000</v>
+      </c>
+      <c r="C22" s="2">
+        <f>$C$18-C3</f>
+        <v>10000</v>
+      </c>
+      <c r="D22" s="2">
+        <f>$C$19-D3</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="17">
+        <f t="shared" ref="B23:B24" si="0">$C$17-B4</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="17">
+        <f t="shared" ref="C23:C24" si="1">$C$18-C4</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="17">
+        <f t="shared" ref="D23:D24" si="2">$C$19-D4</f>
+        <v>60000</v>
+      </c>
+      <c r="F23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="2">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="1"/>
+        <v>35000</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD89C9D-1A83-1943-8DBD-80AE3D9F8FA3}">
+  <dimension ref="A13:D27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="169" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="34.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19">
+        <f>SQRT((2*B13*B15)/B14)</f>
+        <v>118.32159566199232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23">
+        <f>B13/D19</f>
+        <v>2.9580398915498081</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27">
+        <f>(D19*B13)/2</f>
+        <v>20706.279240848657</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD543B0-0E68-F34F-9708-11B862EB6FEA}">
+  <dimension ref="A13:E36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="10">
+        <v>99</v>
+      </c>
+      <c r="B14">
+        <v>200</v>
+      </c>
+      <c r="C14" s="3">
+        <f>SQRT((2*$B$19*$B$20)/($B$21*B14))</f>
+        <v>52.915026221291811</v>
+      </c>
+      <c r="D14">
+        <v>99</v>
+      </c>
+      <c r="E14">
+        <f>(A14/2)*(B21*B14)</f>
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15">
+        <v>198.5</v>
+      </c>
+      <c r="C15" s="3">
+        <f>SQRT((2*$B$19*$B$20)/($B$21*B15))</f>
+        <v>53.114580768149935</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="10">
+        <v>200</v>
+      </c>
+      <c r="B16">
+        <v>197</v>
+      </c>
+      <c r="C16" s="3">
+        <f>SQRT((2*$B$19*$B$20)/($B$21*B16))</f>
+        <v>53.316410174622874</v>
+      </c>
+      <c r="D16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>